--- a/测试结果.xlsx
+++ b/测试结果.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>次数\客户端线程数</t>
     <rPh sb="0" eb="1">
@@ -70,6 +70,62 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>shi'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器出现宕机情况下的测试结果</t>
+    <rPh sb="0" eb="1">
+      <t>fu'wu'q</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chu'x</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dang'ji</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>q'k</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xia</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ce's</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jie'guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器不发生宕机情况下的结果</t>
+    <rPh sb="0" eb="1">
+      <t>fu'wu'q</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fa's</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dang'ji</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qing'k</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xia</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jie'g</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,10 +193,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -423,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -438,360 +497,742 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>5</v>
       </c>
-      <c r="D1">
+      <c r="D2">
         <v>10</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E2" s="1">
         <v>100</v>
       </c>
-      <c r="F1">
+      <c r="F2">
         <v>500</v>
       </c>
-      <c r="G1">
+      <c r="G2">
         <v>1000</v>
       </c>
-      <c r="H1">
+      <c r="H2">
         <v>1000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>12086</v>
-      </c>
-      <c r="C2">
-        <v>7495</v>
-      </c>
-      <c r="D2">
-        <v>8084</v>
-      </c>
-      <c r="E2">
-        <v>8083</v>
-      </c>
-      <c r="F2">
-        <v>11012</v>
-      </c>
-      <c r="G2">
-        <f>H2/2</f>
-        <v>7725</v>
-      </c>
-      <c r="H2">
-        <v>15450</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>5853</v>
+        <v>12086</v>
       </c>
       <c r="C3">
-        <v>1600</v>
+        <v>7495</v>
       </c>
       <c r="D3">
-        <v>1610</v>
+        <v>8084</v>
       </c>
       <c r="E3">
-        <v>1794</v>
+        <v>8083</v>
       </c>
       <c r="F3">
-        <v>1037</v>
+        <v>11012</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G11" si="0">H3/2</f>
-        <v>2271</v>
+        <f>H3/2</f>
+        <v>7725</v>
       </c>
       <c r="H3">
-        <v>4542</v>
+        <v>15450</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5853</v>
+      </c>
+      <c r="C4">
+        <v>1600</v>
+      </c>
+      <c r="D4">
+        <v>1610</v>
+      </c>
+      <c r="E4">
+        <v>1794</v>
+      </c>
+      <c r="F4">
+        <v>1037</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G12" si="0">H4/2</f>
+        <v>2271</v>
+      </c>
+      <c r="H4">
+        <v>4542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>5107</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>1579</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>1532</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>2796</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>1011</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <f t="shared" si="0"/>
         <v>1002.5</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>2005</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>5049</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>1686</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>3289</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>1014</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>1088</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <f t="shared" si="0"/>
         <v>1005.5</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>2011</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>5041</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>3323</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>1086</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>1182</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>3799</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>6739</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>1127</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>1012</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>1003</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>674</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <f t="shared" si="0"/>
         <v>1004</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>2008</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>5031</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>1141</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>1040</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>1009</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>1708</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <f t="shared" si="0"/>
         <v>1005.5</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>2011</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>5039</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>1221</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>1040</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>1007</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>1000</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <f t="shared" si="0"/>
         <v>1040.5</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>2081</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>6640</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>1228</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>1038</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>1005</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>1000</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <f t="shared" si="0"/>
         <v>1347</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>2694</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>5029</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>1411</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>1069</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>1011</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>1001</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <f t="shared" si="0"/>
         <v>1756.5</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>3513</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <f>AVERAGE(B2:B11)</f>
-        <v>6161.4</v>
-      </c>
-      <c r="C12">
-        <f>AVERAGE(C2:C11)</f>
-        <v>2181.1</v>
-      </c>
-      <c r="D12">
-        <f>AVERAGE(D2:D11)</f>
-        <v>2080</v>
-      </c>
-      <c r="E12">
-        <f>AVERAGE(E2:E11)</f>
-        <v>1990.4</v>
-      </c>
-      <c r="F12">
-        <f>AVERAGE(F2:F11)</f>
-        <v>2333</v>
-      </c>
-      <c r="G12">
-        <f>AVERAGE(G2:G11)</f>
-        <v>1915.75</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ref="B13:G13" si="1">AVERAGE(B3:B12)</f>
+        <v>6161.4</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>2181.1</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>2080</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>1990.4</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>2333</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>1915.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>2</v>
       </c>
-      <c r="B13">
-        <f>AVERAGE(B3:B11)</f>
+      <c r="B14">
+        <f t="shared" ref="B14:G14" si="2">AVERAGE(B4:B12)</f>
         <v>5503.1111111111113</v>
       </c>
-      <c r="C13">
-        <f>AVERAGE(C3:C11)</f>
+      <c r="C14">
+        <f t="shared" si="2"/>
         <v>1590.6666666666667</v>
       </c>
-      <c r="D13">
-        <f>AVERAGE(D3:D11)</f>
+      <c r="D14">
+        <f t="shared" si="2"/>
         <v>1412.8888888888889</v>
       </c>
-      <c r="E13">
-        <f>AVERAGE(E3:E11)</f>
+      <c r="E14">
+        <f t="shared" si="2"/>
         <v>1313.4444444444443</v>
       </c>
-      <c r="F13">
-        <f>AVERAGE(F3:F11)</f>
+      <c r="F14">
+        <f t="shared" si="2"/>
         <v>1368.6666666666667</v>
       </c>
-      <c r="G13">
-        <f>AVERAGE(G3:G11)</f>
+      <c r="G14">
+        <f t="shared" si="2"/>
         <v>1270.2777777777778</v>
       </c>
     </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1">
+        <v>100</v>
+      </c>
+      <c r="F17">
+        <v>500</v>
+      </c>
+      <c r="G17">
+        <v>1000</v>
+      </c>
+      <c r="H17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>11720</v>
+      </c>
+      <c r="C18">
+        <v>7155</v>
+      </c>
+      <c r="D18">
+        <v>6964</v>
+      </c>
+      <c r="E18">
+        <v>7515</v>
+      </c>
+      <c r="F18">
+        <v>9593</v>
+      </c>
+      <c r="G18">
+        <f>H18/2</f>
+        <v>6092.5</v>
+      </c>
+      <c r="H18">
+        <v>12185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>6380</v>
+      </c>
+      <c r="C19">
+        <v>1420</v>
+      </c>
+      <c r="D19">
+        <v>1076</v>
+      </c>
+      <c r="E19">
+        <v>1098</v>
+      </c>
+      <c r="F19">
+        <v>1110</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ref="G19:G27" si="3">H19/2</f>
+        <v>2806</v>
+      </c>
+      <c r="H19">
+        <v>5612</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>5635</v>
+      </c>
+      <c r="C20">
+        <v>1757</v>
+      </c>
+      <c r="D20">
+        <v>1588</v>
+      </c>
+      <c r="E20">
+        <v>1015</v>
+      </c>
+      <c r="F20">
+        <v>1385</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>1035</v>
+      </c>
+      <c r="H20">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>5520</v>
+      </c>
+      <c r="C21">
+        <v>1751</v>
+      </c>
+      <c r="D21">
+        <v>1120</v>
+      </c>
+      <c r="E21">
+        <v>1044</v>
+      </c>
+      <c r="F21">
+        <v>1194</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>1270.5</v>
+      </c>
+      <c r="H21">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>8315</v>
+      </c>
+      <c r="C22">
+        <v>1351</v>
+      </c>
+      <c r="D22">
+        <v>1179</v>
+      </c>
+      <c r="E22">
+        <v>1150</v>
+      </c>
+      <c r="F22">
+        <v>22095</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>999</v>
+      </c>
+      <c r="H22">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>5680</v>
+      </c>
+      <c r="C23">
+        <v>5517</v>
+      </c>
+      <c r="D23">
+        <v>1060</v>
+      </c>
+      <c r="E23">
+        <v>1152</v>
+      </c>
+      <c r="F23">
+        <v>1013</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>1031.5</v>
+      </c>
+      <c r="H23">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>5600</v>
+      </c>
+      <c r="C24">
+        <v>1139</v>
+      </c>
+      <c r="D24">
+        <v>7073</v>
+      </c>
+      <c r="E24">
+        <v>1506</v>
+      </c>
+      <c r="F24">
+        <v>1064</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>1003</v>
+      </c>
+      <c r="H24">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>11330</v>
+      </c>
+      <c r="C25">
+        <v>1048</v>
+      </c>
+      <c r="D25">
+        <v>1058</v>
+      </c>
+      <c r="E25">
+        <v>1500</v>
+      </c>
+      <c r="F25">
+        <v>1002</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>1021.5</v>
+      </c>
+      <c r="H25">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>5020</v>
+      </c>
+      <c r="C26">
+        <v>1051</v>
+      </c>
+      <c r="D26">
+        <v>1011</v>
+      </c>
+      <c r="E26">
+        <v>15474</v>
+      </c>
+      <c r="F26">
+        <v>1010</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>1003.5</v>
+      </c>
+      <c r="H26">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>5098</v>
+      </c>
+      <c r="C27">
+        <v>1071</v>
+      </c>
+      <c r="D27">
+        <v>1120</v>
+      </c>
+      <c r="E27">
+        <v>831</v>
+      </c>
+      <c r="F27">
+        <v>1021</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>17136.5</v>
+      </c>
+      <c r="H27">
+        <v>34273</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28:G28" si="4">AVERAGE(B18:B27)</f>
+        <v>7029.8</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="4"/>
+        <v>2326</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="4"/>
+        <v>2324.9</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="4"/>
+        <v>3228.5</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>4048.7</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="4"/>
+        <v>3339.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29:G29" si="5">AVERAGE(B19:B27)</f>
+        <v>6508.666666666667</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="5"/>
+        <v>1789.4444444444443</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="5"/>
+        <v>1809.4444444444443</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="5"/>
+        <v>2752.2222222222222</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="5"/>
+        <v>3432.6666666666665</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="5"/>
+        <v>3034.0555555555557</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A16:H16"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
